--- a/avaliacao basal codificado.xlsx
+++ b/avaliacao basal codificado.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>matricula</t>
   </si>
@@ -36,100 +36,196 @@
     <t>criterio3</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>aluno1</t>
   </si>
   <si>
     <t>escrita</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>aluno2</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>aluno3</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>aluno4</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <t>aluno5</t>
   </si>
   <si>
+    <t>A6</t>
+  </si>
+  <si>
     <t>aluno6</t>
+  </si>
+  <si>
+    <t>A7</t>
   </si>
   <si>
     <t>aluno7</t>
   </si>
   <si>
+    <t>A8</t>
+  </si>
+  <si>
     <t>aluno8</t>
+  </si>
+  <si>
+    <t>A9</t>
   </si>
   <si>
     <t>aluno9</t>
   </si>
   <si>
+    <t>A10</t>
+  </si>
+  <si>
     <t>aluno10</t>
+  </si>
+  <si>
+    <t>A11</t>
   </si>
   <si>
     <t>aluno11</t>
   </si>
   <si>
+    <t>A12</t>
+  </si>
+  <si>
     <t>aluno12</t>
+  </si>
+  <si>
+    <t>A13</t>
   </si>
   <si>
     <t>aluno13</t>
   </si>
   <si>
+    <t>A14</t>
+  </si>
+  <si>
     <t>aluno14</t>
+  </si>
+  <si>
+    <t>A15</t>
   </si>
   <si>
     <t>aluno15</t>
   </si>
   <si>
+    <t>A16</t>
+  </si>
+  <si>
     <t>aluno16</t>
+  </si>
+  <si>
+    <t>A17</t>
   </si>
   <si>
     <t>aluno17</t>
   </si>
   <si>
+    <t>A18</t>
+  </si>
+  <si>
     <t>aluno18</t>
+  </si>
+  <si>
+    <t>A19</t>
   </si>
   <si>
     <t>aluno19</t>
   </si>
   <si>
+    <t>A20</t>
+  </si>
+  <si>
     <t>aluno20</t>
+  </si>
+  <si>
+    <t>A21</t>
   </si>
   <si>
     <t>aluno21</t>
   </si>
   <si>
+    <t>A22</t>
+  </si>
+  <si>
     <t>aluno22</t>
+  </si>
+  <si>
+    <t>A23</t>
   </si>
   <si>
     <t>aluno23</t>
   </si>
   <si>
+    <t>A24</t>
+  </si>
+  <si>
     <t>aluno24</t>
+  </si>
+  <si>
+    <t>A25</t>
   </si>
   <si>
     <t>aluno25</t>
   </si>
   <si>
+    <t>A26</t>
+  </si>
+  <si>
     <t>aluno26</t>
+  </si>
+  <si>
+    <t>A27</t>
   </si>
   <si>
     <t>aluno27</t>
   </si>
   <si>
+    <t>A28</t>
+  </si>
+  <si>
     <t>aluno28</t>
+  </si>
+  <si>
+    <t>A29</t>
   </si>
   <si>
     <t>aluno29</t>
   </si>
   <si>
+    <t>A30</t>
+  </si>
+  <si>
     <t>aluno30</t>
   </si>
   <si>
+    <t>A31</t>
+  </si>
+  <si>
     <t>aluno31</t>
+  </si>
+  <si>
+    <t>A32</t>
   </si>
   <si>
     <t>aluno32</t>
@@ -142,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -174,10 +270,6 @@
       <color theme="1"/>
       <sz val="11.000000"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF222222"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,11 +305,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,14 +861,14 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>221092620034</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -794,14 +884,14 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>221092620023</v>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -817,14 +907,14 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>221092620027</v>
+      <c r="A4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -840,14 +930,14 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>221092620025</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -863,14 +953,14 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>221092620022</v>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -886,14 +976,14 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>221092620035</v>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -909,14 +999,14 @@
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>221092620026</v>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -932,14 +1022,14 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>221092620037</v>
+      <c r="A9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -955,14 +1045,14 @@
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2">
-        <v>221092620036</v>
+      <c r="A10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -978,14 +1068,14 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="2">
-        <v>221092620033</v>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -1001,14 +1091,14 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="2">
-        <v>211092620024</v>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -1024,14 +1114,14 @@
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="2">
-        <v>221092620018</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -1047,14 +1137,14 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="2">
-        <v>221092620014</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -1070,14 +1160,14 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="2">
-        <v>221092620007</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -1093,14 +1183,14 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="2">
-        <v>221092620015</v>
+      <c r="A16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -1116,14 +1206,14 @@
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="2">
-        <v>221092620016</v>
+      <c r="A17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -1139,14 +1229,14 @@
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="2">
-        <v>221092620011</v>
+      <c r="A18" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -1162,14 +1252,14 @@
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="2">
-        <v>221092620017</v>
+      <c r="A19" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -1185,14 +1275,14 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="2">
-        <v>221092620019</v>
+      <c r="A20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -1208,14 +1298,14 @@
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="2">
-        <v>221092620005</v>
+      <c r="A21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -1231,14 +1321,14 @@
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="2">
-        <v>221092620012</v>
+      <c r="A22" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1254,14 +1344,14 @@
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="2">
-        <v>221092620006</v>
+      <c r="A23" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -1277,14 +1367,14 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="2">
-        <v>221092620010</v>
+      <c r="A24" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1300,14 +1390,14 @@
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="2">
-        <v>221092620001</v>
+      <c r="A25" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1323,14 +1413,14 @@
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="2">
-        <v>221092620043</v>
+      <c r="A26" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1346,14 +1436,14 @@
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="2">
-        <v>221092620021</v>
+      <c r="A27" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1369,14 +1459,14 @@
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="2">
-        <v>221092620032</v>
+      <c r="A28" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1392,14 +1482,14 @@
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="2">
-        <v>221092620008</v>
+      <c r="A29" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1415,14 +1505,14 @@
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="2">
-        <v>221092620003</v>
+      <c r="A30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1438,14 +1528,14 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="2">
-        <v>221092620013</v>
+      <c r="A31" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1461,14 +1551,14 @@
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="2">
-        <v>221092620040</v>
+      <c r="A32" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -1484,14 +1574,14 @@
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="2">
-        <v>221092620002</v>
+      <c r="A33" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1516,14 +1606,14 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="2">
-        <v>221092620034</v>
+      <c r="A35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
@@ -1539,14 +1629,14 @@
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
@@ -1562,14 +1652,14 @@
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="2">
-        <v>221092620027</v>
+      <c r="A37" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
@@ -1585,14 +1675,14 @@
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="2">
-        <v>221092620025</v>
+      <c r="A38" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
@@ -1608,14 +1698,14 @@
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="2">
-        <v>221092620022</v>
+      <c r="A39" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
@@ -1631,14 +1721,14 @@
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="2">
-        <v>221092620035</v>
+      <c r="A40" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5">
         <v>2</v>
@@ -1654,14 +1744,14 @@
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="2">
-        <v>221092620026</v>
+      <c r="A41" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
@@ -1677,14 +1767,14 @@
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="2">
-        <v>221092620037</v>
+      <c r="A42" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
@@ -1700,14 +1790,14 @@
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="2">
-        <v>221092620036</v>
+      <c r="A43" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
@@ -1723,14 +1813,14 @@
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="2">
-        <v>221092620033</v>
+      <c r="A44" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
@@ -1746,14 +1836,14 @@
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2">
-        <v>211092620024</v>
+      <c r="A45" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
@@ -1769,14 +1859,14 @@
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="2">
-        <v>221092620018</v>
+      <c r="A46" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
@@ -1792,14 +1882,14 @@
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="2">
-        <v>221092620014</v>
+      <c r="A47" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
@@ -1815,14 +1905,14 @@
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="2">
-        <v>221092620007</v>
+      <c r="A48" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
@@ -1838,14 +1928,14 @@
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="2">
-        <v>221092620015</v>
+      <c r="A49" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="5">
         <v>2</v>
@@ -1861,14 +1951,14 @@
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="2">
-        <v>221092620016</v>
+      <c r="A50" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="5">
         <v>2</v>
@@ -1884,14 +1974,14 @@
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="2">
-        <v>221092620011</v>
+      <c r="A51" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
@@ -1907,14 +1997,14 @@
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="2">
-        <v>221092620017</v>
+      <c r="A52" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
@@ -1930,14 +2020,14 @@
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="2">
-        <v>221092620019</v>
+      <c r="A53" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
@@ -1953,14 +2043,14 @@
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="2">
-        <v>221092620005</v>
+      <c r="A54" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="5">
         <v>2</v>
@@ -1976,14 +2066,14 @@
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="2">
-        <v>221092620012</v>
+      <c r="A55" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
@@ -1999,14 +2089,14 @@
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="2">
-        <v>221092620006</v>
+      <c r="A56" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
@@ -2022,14 +2112,14 @@
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="2">
-        <v>221092620010</v>
+      <c r="A57" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="5">
         <v>2</v>
@@ -2045,14 +2135,14 @@
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="2">
-        <v>221092620001</v>
+      <c r="A58" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
@@ -2068,14 +2158,14 @@
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="2">
-        <v>221092620043</v>
+      <c r="A59" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
@@ -2091,14 +2181,14 @@
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="2">
-        <v>221092620021</v>
+      <c r="A60" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="5">
         <v>2</v>
@@ -2114,14 +2204,14 @@
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="2">
-        <v>221092620032</v>
+      <c r="A61" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
@@ -2137,14 +2227,14 @@
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="2">
-        <v>221092620008</v>
+      <c r="A62" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
@@ -2160,14 +2250,14 @@
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="2">
-        <v>221092620003</v>
+      <c r="A63" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="5">
         <v>2</v>
@@ -2183,14 +2273,14 @@
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="2">
-        <v>221092620013</v>
+      <c r="A64" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="5">
         <v>2</v>
@@ -2206,14 +2296,14 @@
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="2">
-        <v>221092620040</v>
+      <c r="A65" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
@@ -2229,14 +2319,14 @@
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="2">
-        <v>221092620002</v>
+      <c r="A66" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
@@ -2261,14 +2351,14 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="2">
-        <v>221092620034</v>
+      <c r="A68" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="5">
         <v>3</v>
@@ -2284,14 +2374,14 @@
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>9</v>
+      <c r="A69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="5">
         <v>3</v>
@@ -2307,14 +2397,14 @@
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="2">
-        <v>221092620027</v>
+      <c r="A70" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
@@ -2330,14 +2420,14 @@
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="2">
-        <v>221092620025</v>
+      <c r="A71" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="5">
         <v>3</v>
@@ -2353,14 +2443,14 @@
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="2">
-        <v>221092620022</v>
+      <c r="A72" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="5">
         <v>3</v>
@@ -2376,14 +2466,14 @@
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="2">
-        <v>221092620035</v>
+      <c r="A73" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="5">
         <v>3</v>
@@ -2399,14 +2489,14 @@
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="2">
-        <v>221092620026</v>
+      <c r="A74" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="5">
         <v>3</v>
@@ -2422,14 +2512,14 @@
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="2">
-        <v>221092620037</v>
+      <c r="A75" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="5">
         <v>3</v>
@@ -2445,14 +2535,14 @@
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="2">
-        <v>221092620036</v>
+      <c r="A76" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="5">
         <v>3</v>
@@ -2468,14 +2558,14 @@
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="2">
-        <v>221092620033</v>
+      <c r="A77" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="5">
         <v>3</v>
@@ -2491,14 +2581,14 @@
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="2">
-        <v>211092620024</v>
+      <c r="A78" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="5">
         <v>3</v>
@@ -2514,14 +2604,14 @@
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="2">
-        <v>221092620018</v>
+      <c r="A79" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="5">
         <v>3</v>
@@ -2537,14 +2627,14 @@
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="2">
-        <v>221092620014</v>
+      <c r="A80" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="5">
         <v>3</v>
@@ -2560,14 +2650,14 @@
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="2">
-        <v>221092620007</v>
+      <c r="A81" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="5">
         <v>3</v>
@@ -2583,14 +2673,14 @@
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="2">
-        <v>221092620015</v>
+      <c r="A82" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="5">
         <v>3</v>
@@ -2606,14 +2696,14 @@
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="2">
-        <v>221092620016</v>
+      <c r="A83" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="5">
         <v>3</v>
@@ -2629,14 +2719,14 @@
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="2">
-        <v>221092620011</v>
+      <c r="A84" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="5">
         <v>3</v>
@@ -2652,14 +2742,14 @@
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="2">
-        <v>221092620017</v>
+      <c r="A85" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="5">
         <v>3</v>
@@ -2675,14 +2765,14 @@
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="2">
-        <v>221092620019</v>
+      <c r="A86" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="5">
         <v>3</v>
@@ -2698,14 +2788,14 @@
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="2">
-        <v>221092620005</v>
+      <c r="A87" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="5">
         <v>3</v>
@@ -2721,14 +2811,14 @@
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="2">
-        <v>221092620012</v>
+      <c r="A88" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
@@ -2744,14 +2834,14 @@
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="2">
-        <v>221092620006</v>
+      <c r="A89" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="5">
         <v>3</v>
@@ -2767,14 +2857,14 @@
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="2">
-        <v>221092620010</v>
+      <c r="A90" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
@@ -2790,14 +2880,14 @@
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="2">
-        <v>221092620001</v>
+      <c r="A91" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="5">
         <v>3</v>
@@ -2813,14 +2903,14 @@
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="2">
-        <v>221092620043</v>
+      <c r="A92" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="5">
         <v>3</v>
@@ -2836,14 +2926,14 @@
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="2">
-        <v>221092620021</v>
+      <c r="A93" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="5">
         <v>3</v>
@@ -2859,14 +2949,14 @@
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="2">
-        <v>221092620032</v>
+      <c r="A94" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="5">
         <v>3</v>
@@ -2882,14 +2972,14 @@
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="2">
-        <v>221092620008</v>
+      <c r="A95" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="5">
         <v>3</v>
@@ -2905,14 +2995,14 @@
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="2">
-        <v>221092620003</v>
+      <c r="A96" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="5">
         <v>3</v>
@@ -2928,14 +3018,14 @@
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="2">
-        <v>221092620013</v>
+      <c r="A97" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="5">
         <v>3</v>
@@ -2951,14 +3041,14 @@
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="2">
-        <v>221092620040</v>
+      <c r="A98" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="5">
         <v>3</v>
@@ -2974,14 +3064,14 @@
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="2">
-        <v>221092620002</v>
+      <c r="A99" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="5">
         <v>3</v>
@@ -3006,14 +3096,14 @@
       <c r="G100" s="5"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="2">
-        <v>221092620034</v>
+      <c r="A101" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="5">
         <v>4</v>
@@ -3029,14 +3119,14 @@
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>9</v>
+      <c r="A102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="5">
         <v>4</v>
@@ -3052,14 +3142,14 @@
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="2">
-        <v>221092620027</v>
+      <c r="A103" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="5">
         <v>4</v>
@@ -3075,14 +3165,14 @@
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="2">
-        <v>221092620025</v>
+      <c r="A104" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="5">
         <v>4</v>
@@ -3098,14 +3188,14 @@
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="2">
-        <v>221092620022</v>
+      <c r="A105" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="5">
         <v>4</v>
@@ -3121,14 +3211,14 @@
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="2">
-        <v>221092620035</v>
+      <c r="A106" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="5">
         <v>4</v>
@@ -3144,14 +3234,14 @@
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="2">
-        <v>221092620026</v>
+      <c r="A107" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="5">
         <v>4</v>
@@ -3167,14 +3257,14 @@
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="2">
-        <v>221092620037</v>
+      <c r="A108" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="5">
         <v>4</v>
@@ -3190,14 +3280,14 @@
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="2">
-        <v>221092620036</v>
+      <c r="A109" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="5">
         <v>4</v>
@@ -3213,14 +3303,14 @@
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="2">
-        <v>221092620033</v>
+      <c r="A110" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="5">
         <v>4</v>
@@ -3236,14 +3326,14 @@
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="2">
-        <v>211092620024</v>
+      <c r="A111" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="5">
         <v>4</v>
@@ -3259,14 +3349,14 @@
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="2">
-        <v>221092620018</v>
+      <c r="A112" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="5">
         <v>4</v>
@@ -3282,14 +3372,14 @@
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="2">
-        <v>221092620014</v>
+      <c r="A113" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="5">
         <v>4</v>
@@ -3305,14 +3395,14 @@
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="2">
-        <v>221092620007</v>
+      <c r="A114" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="5">
         <v>4</v>
@@ -3328,14 +3418,14 @@
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="2">
-        <v>221092620015</v>
+      <c r="A115" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="5">
         <v>4</v>
@@ -3351,14 +3441,14 @@
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="2">
-        <v>221092620016</v>
+      <c r="A116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="5">
         <v>4</v>
@@ -3374,14 +3464,14 @@
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="2">
-        <v>221092620011</v>
+      <c r="A117" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="5">
         <v>4</v>
@@ -3397,14 +3487,14 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="2">
-        <v>221092620017</v>
+      <c r="A118" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="5">
         <v>4</v>
@@ -3420,14 +3510,14 @@
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="2">
-        <v>221092620019</v>
+      <c r="A119" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="5">
         <v>4</v>
@@ -3443,14 +3533,14 @@
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="2">
-        <v>221092620005</v>
+      <c r="A120" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="5">
         <v>4</v>
@@ -3466,14 +3556,14 @@
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="2">
-        <v>221092620012</v>
+      <c r="A121" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="5">
         <v>4</v>
@@ -3489,14 +3579,14 @@
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="2">
-        <v>221092620006</v>
+      <c r="A122" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="5">
         <v>4</v>
@@ -3512,14 +3602,14 @@
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="2">
-        <v>221092620010</v>
+      <c r="A123" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="5">
         <v>4</v>
@@ -3535,14 +3625,14 @@
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="2">
-        <v>221092620001</v>
+      <c r="A124" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="5">
         <v>4</v>
@@ -3558,14 +3648,14 @@
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="2">
-        <v>221092620043</v>
+      <c r="A125" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="5">
         <v>4</v>
@@ -3581,14 +3671,14 @@
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="2">
-        <v>221092620021</v>
+      <c r="A126" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="5">
         <v>4</v>
@@ -3604,14 +3694,14 @@
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="2">
-        <v>221092620032</v>
+      <c r="A127" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="5">
         <v>4</v>
@@ -3627,14 +3717,14 @@
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="2">
-        <v>221092620008</v>
+      <c r="A128" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="5">
         <v>4</v>
@@ -3650,14 +3740,14 @@
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="2">
-        <v>221092620003</v>
+      <c r="A129" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="5">
         <v>4</v>
@@ -3673,14 +3763,14 @@
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="2">
-        <v>221092620013</v>
+      <c r="A130" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="5">
         <v>4</v>
@@ -3696,14 +3786,14 @@
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="2">
-        <v>221092620040</v>
+      <c r="A131" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="5">
         <v>4</v>
@@ -3719,14 +3809,14 @@
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="2">
-        <v>221092620002</v>
+      <c r="A132" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="5">
         <v>4</v>
@@ -3751,14 +3841,14 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="2">
-        <v>221092620034</v>
+      <c r="A134" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="5">
         <v>5</v>
@@ -3774,14 +3864,14 @@
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>9</v>
+      <c r="A135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="5">
         <v>5</v>
@@ -3797,14 +3887,14 @@
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="2">
-        <v>221092620027</v>
+      <c r="A136" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="5">
         <v>5</v>
@@ -3820,14 +3910,14 @@
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="2">
-        <v>221092620025</v>
+      <c r="A137" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="5">
         <v>5</v>
@@ -3843,14 +3933,14 @@
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="2">
-        <v>221092620022</v>
+      <c r="A138" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="5">
         <v>5</v>
@@ -3866,14 +3956,14 @@
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="2">
-        <v>221092620035</v>
+      <c r="A139" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="5">
         <v>5</v>
@@ -3889,14 +3979,14 @@
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="2">
-        <v>221092620026</v>
+      <c r="A140" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="5">
         <v>5</v>
@@ -3912,14 +4002,14 @@
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="2">
-        <v>221092620037</v>
+      <c r="A141" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="5">
         <v>5</v>
@@ -3935,14 +4025,14 @@
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="2">
-        <v>221092620036</v>
+      <c r="A142" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="5">
         <v>5</v>
@@ -3958,14 +4048,14 @@
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="2">
-        <v>221092620033</v>
+      <c r="A143" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="5">
         <v>5</v>
@@ -3981,14 +4071,14 @@
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="2">
-        <v>211092620024</v>
+      <c r="A144" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="5">
         <v>5</v>
@@ -4004,14 +4094,14 @@
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="2">
-        <v>221092620018</v>
+      <c r="A145" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="5">
         <v>5</v>
@@ -4027,14 +4117,14 @@
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="2">
-        <v>221092620014</v>
+      <c r="A146" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="5">
         <v>5</v>
@@ -4050,14 +4140,14 @@
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="2">
-        <v>221092620007</v>
+      <c r="A147" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="5">
         <v>5</v>
@@ -4073,14 +4163,14 @@
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="2">
-        <v>221092620015</v>
+      <c r="A148" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="5">
         <v>5</v>
@@ -4096,14 +4186,14 @@
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="2">
-        <v>221092620016</v>
+      <c r="A149" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="5">
         <v>5</v>
@@ -4119,14 +4209,14 @@
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="2">
-        <v>221092620011</v>
+      <c r="A150" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="5">
         <v>5</v>
@@ -4142,14 +4232,14 @@
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="2">
-        <v>221092620017</v>
+      <c r="A151" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" s="5">
         <v>5</v>
@@ -4165,14 +4255,14 @@
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="2">
-        <v>221092620019</v>
+      <c r="A152" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="5">
         <v>5</v>
@@ -4188,14 +4278,14 @@
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="2">
-        <v>221092620005</v>
+      <c r="A153" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="5">
         <v>5</v>
@@ -4211,14 +4301,14 @@
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="2">
-        <v>221092620012</v>
+      <c r="A154" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="5">
         <v>5</v>
@@ -4234,14 +4324,14 @@
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="2">
-        <v>221092620006</v>
+      <c r="A155" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="5">
         <v>5</v>
@@ -4257,14 +4347,14 @@
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="2">
-        <v>221092620010</v>
+      <c r="A156" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" s="5">
         <v>5</v>
@@ -4280,14 +4370,14 @@
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="2">
-        <v>221092620001</v>
+      <c r="A157" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="5">
         <v>5</v>
@@ -4303,14 +4393,14 @@
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="2">
-        <v>221092620043</v>
+      <c r="A158" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" s="5">
         <v>5</v>
@@ -4326,14 +4416,14 @@
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="2">
-        <v>221092620021</v>
+      <c r="A159" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="5">
         <v>5</v>
@@ -4349,14 +4439,14 @@
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="2">
-        <v>221092620032</v>
+      <c r="A160" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="5">
         <v>5</v>
@@ -4372,14 +4462,14 @@
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="2">
-        <v>221092620008</v>
+      <c r="A161" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" s="5">
         <v>5</v>
@@ -4395,14 +4485,14 @@
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="2">
-        <v>221092620003</v>
+      <c r="A162" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="5">
         <v>5</v>
@@ -4418,14 +4508,14 @@
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="2">
-        <v>221092620013</v>
+      <c r="A163" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="5">
         <v>5</v>
@@ -4441,14 +4531,14 @@
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="2">
-        <v>221092620040</v>
+      <c r="A164" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="5">
         <v>5</v>
@@ -4464,14 +4554,14 @@
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="2">
-        <v>221092620002</v>
+      <c r="A165" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="5">
         <v>5</v>
@@ -4496,14 +4586,14 @@
       <c r="G166" s="5"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="2">
-        <v>221092620034</v>
+      <c r="A167" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" s="5">
         <v>6</v>
@@ -4519,14 +4609,14 @@
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>9</v>
+      <c r="A168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" s="5">
         <v>6</v>
@@ -4542,14 +4632,14 @@
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="2">
-        <v>221092620027</v>
+      <c r="A169" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" s="5">
         <v>6</v>
@@ -4565,14 +4655,14 @@
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="2">
-        <v>221092620025</v>
+      <c r="A170" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" s="5">
         <v>6</v>
@@ -4588,14 +4678,14 @@
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="2">
-        <v>221092620022</v>
+      <c r="A171" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" s="5">
         <v>6</v>
@@ -4611,14 +4701,14 @@
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="2">
-        <v>221092620035</v>
+      <c r="A172" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="5">
         <v>6</v>
@@ -4634,14 +4724,14 @@
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="2">
-        <v>221092620026</v>
+      <c r="A173" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="5">
         <v>6</v>
@@ -4657,14 +4747,14 @@
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="2">
-        <v>221092620037</v>
+      <c r="A174" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="5">
         <v>6</v>
@@ -4680,14 +4770,14 @@
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="2">
-        <v>221092620036</v>
+      <c r="A175" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="5">
         <v>6</v>
@@ -4703,14 +4793,14 @@
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="2">
-        <v>221092620033</v>
+      <c r="A176" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" s="5">
         <v>6</v>
@@ -4726,14 +4816,14 @@
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="2">
-        <v>211092620024</v>
+      <c r="A177" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" s="5">
         <v>6</v>
@@ -4749,14 +4839,14 @@
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="2">
-        <v>221092620018</v>
+      <c r="A178" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" s="5">
         <v>6</v>
@@ -4772,14 +4862,14 @@
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="2">
-        <v>221092620014</v>
+      <c r="A179" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" s="5">
         <v>6</v>
@@ -4795,14 +4885,14 @@
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="2">
-        <v>221092620007</v>
+      <c r="A180" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" s="5">
         <v>6</v>
@@ -4818,14 +4908,14 @@
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="2">
-        <v>221092620015</v>
+      <c r="A181" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" s="5">
         <v>6</v>
@@ -4841,14 +4931,14 @@
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="2">
-        <v>221092620016</v>
+      <c r="A182" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" s="5">
         <v>6</v>
@@ -4864,14 +4954,14 @@
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="2">
-        <v>221092620011</v>
+      <c r="A183" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" s="5">
         <v>6</v>
@@ -4887,14 +4977,14 @@
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="2">
-        <v>221092620017</v>
+      <c r="A184" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" s="5">
         <v>6</v>
@@ -4910,14 +5000,14 @@
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="2">
-        <v>221092620019</v>
+      <c r="A185" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="5">
         <v>6</v>
@@ -4933,14 +5023,14 @@
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="2">
-        <v>221092620005</v>
+      <c r="A186" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" s="5">
         <v>6</v>
@@ -4956,14 +5046,14 @@
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="2">
-        <v>221092620012</v>
+      <c r="A187" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" s="5">
         <v>6</v>
@@ -4979,14 +5069,14 @@
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="2">
-        <v>221092620006</v>
+      <c r="A188" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" s="5">
         <v>6</v>
@@ -5002,14 +5092,14 @@
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="2">
-        <v>221092620010</v>
+      <c r="A189" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" s="5">
         <v>6</v>
@@ -5025,14 +5115,14 @@
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="2">
-        <v>221092620001</v>
+      <c r="A190" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" s="5">
         <v>6</v>
@@ -5048,14 +5138,14 @@
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="2">
-        <v>221092620043</v>
+      <c r="A191" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" s="5">
         <v>6</v>
@@ -5071,14 +5161,14 @@
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="A192" s="2">
-        <v>221092620021</v>
+      <c r="A192" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" s="5">
         <v>6</v>
@@ -5094,14 +5184,14 @@
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="2">
-        <v>221092620032</v>
+      <c r="A193" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" s="5">
         <v>6</v>
@@ -5117,14 +5207,14 @@
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="2">
-        <v>221092620008</v>
+      <c r="A194" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" s="5">
         <v>6</v>
@@ -5140,14 +5230,14 @@
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="2">
-        <v>221092620003</v>
+      <c r="A195" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" s="5">
         <v>6</v>
@@ -5163,14 +5253,14 @@
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="2">
-        <v>221092620013</v>
+      <c r="A196" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" s="5">
         <v>6</v>
@@ -5186,14 +5276,14 @@
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="2">
-        <v>221092620040</v>
+      <c r="A197" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" s="5">
         <v>6</v>
@@ -5209,14 +5299,14 @@
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="2">
-        <v>221092620002</v>
+      <c r="A198" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" s="5">
         <v>6</v>
@@ -5241,14 +5331,14 @@
       <c r="G199" s="5"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="2">
-        <v>221092620034</v>
+      <c r="A200" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" s="5">
         <v>7</v>
@@ -5264,14 +5354,14 @@
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>9</v>
+      <c r="A201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" s="5">
         <v>7</v>
@@ -5287,14 +5377,14 @@
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="2">
-        <v>221092620027</v>
+      <c r="A202" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" s="5">
         <v>7</v>
@@ -5310,14 +5400,14 @@
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="2">
-        <v>221092620025</v>
+      <c r="A203" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" s="5">
         <v>7</v>
@@ -5333,14 +5423,14 @@
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="2">
-        <v>221092620022</v>
+      <c r="A204" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" s="5">
         <v>7</v>
@@ -5356,14 +5446,14 @@
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="2">
-        <v>221092620035</v>
+      <c r="A205" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" s="5">
         <v>7</v>
@@ -5379,14 +5469,14 @@
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="A206" s="2">
-        <v>221092620026</v>
+      <c r="A206" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" s="5">
         <v>7</v>
@@ -5402,14 +5492,14 @@
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="A207" s="2">
-        <v>221092620037</v>
+      <c r="A207" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" s="5">
         <v>7</v>
@@ -5425,14 +5515,14 @@
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="A208" s="2">
-        <v>221092620036</v>
+      <c r="A208" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" s="5">
         <v>7</v>
@@ -5448,14 +5538,14 @@
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="A209" s="2">
-        <v>221092620033</v>
+      <c r="A209" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" s="5">
         <v>7</v>
@@ -5471,14 +5561,14 @@
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="2">
-        <v>211092620024</v>
+      <c r="A210" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" s="5">
         <v>7</v>
@@ -5494,14 +5584,14 @@
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="A211" s="2">
-        <v>221092620018</v>
+      <c r="A211" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" s="5">
         <v>7</v>
@@ -5517,14 +5607,14 @@
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="2">
-        <v>221092620014</v>
+      <c r="A212" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" s="5">
         <v>7</v>
@@ -5540,14 +5630,14 @@
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="A213" s="2">
-        <v>221092620007</v>
+      <c r="A213" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" s="5">
         <v>7</v>
@@ -5563,14 +5653,14 @@
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="A214" s="2">
-        <v>221092620015</v>
+      <c r="A214" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" s="5">
         <v>7</v>
@@ -5586,14 +5676,14 @@
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="A215" s="2">
-        <v>221092620016</v>
+      <c r="A215" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" s="5">
         <v>7</v>
@@ -5609,14 +5699,14 @@
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="A216" s="2">
-        <v>221092620011</v>
+      <c r="A216" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" s="5">
         <v>7</v>
@@ -5632,14 +5722,14 @@
       </c>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="A217" s="2">
-        <v>221092620017</v>
+      <c r="A217" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" s="5">
         <v>7</v>
@@ -5655,14 +5745,14 @@
       </c>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="A218" s="2">
-        <v>221092620019</v>
+      <c r="A218" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" s="5">
         <v>7</v>
@@ -5678,14 +5768,14 @@
       </c>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="A219" s="2">
-        <v>221092620005</v>
+      <c r="A219" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" s="5">
         <v>7</v>
@@ -5701,14 +5791,14 @@
       </c>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="A220" s="2">
-        <v>221092620012</v>
+      <c r="A220" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" s="5">
         <v>7</v>
@@ -5724,14 +5814,14 @@
       </c>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="A221" s="2">
-        <v>221092620006</v>
+      <c r="A221" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" s="5">
         <v>7</v>
@@ -5747,14 +5837,14 @@
       </c>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="A222" s="2">
-        <v>221092620010</v>
+      <c r="A222" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" s="5">
         <v>7</v>
@@ -5770,14 +5860,14 @@
       </c>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="A223" s="2">
-        <v>221092620001</v>
+      <c r="A223" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" s="5">
         <v>7</v>
@@ -5793,14 +5883,14 @@
       </c>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="A224" s="2">
-        <v>221092620043</v>
+      <c r="A224" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" s="5">
         <v>7</v>
@@ -5816,14 +5906,14 @@
       </c>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="A225" s="2">
-        <v>221092620021</v>
+      <c r="A225" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" s="5">
         <v>7</v>
@@ -5839,14 +5929,14 @@
       </c>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="A226" s="2">
-        <v>221092620032</v>
+      <c r="A226" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" s="5">
         <v>7</v>
@@ -5862,14 +5952,14 @@
       </c>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="A227" s="2">
-        <v>221092620008</v>
+      <c r="A227" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" s="5">
         <v>7</v>
@@ -5885,14 +5975,14 @@
       </c>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="A228" s="2">
-        <v>221092620003</v>
+      <c r="A228" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" s="5">
         <v>7</v>
@@ -5908,14 +5998,14 @@
       </c>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="A229" s="2">
-        <v>221092620013</v>
+      <c r="A229" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" s="5">
         <v>7</v>
@@ -5931,14 +6021,14 @@
       </c>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="A230" s="2">
-        <v>221092620040</v>
+      <c r="A230" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" s="5">
         <v>7</v>
@@ -5954,14 +6044,14 @@
       </c>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="A231" s="2">
-        <v>221092620002</v>
+      <c r="A231" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" s="5">
         <v>7</v>
@@ -5977,7 +6067,7 @@
       </c>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="A232" s="8"/>
+      <c r="A232" s="7"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
       <c r="D232" s="5"/>
@@ -5986,14 +6076,14 @@
       <c r="G232" s="5"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="A233" s="2">
-        <v>221092620034</v>
+      <c r="A233" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" s="5">
         <v>8</v>
@@ -6009,14 +6099,14 @@
       </c>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="A234" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>9</v>
+      <c r="A234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" s="5">
         <v>8</v>
@@ -6032,14 +6122,14 @@
       </c>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="A235" s="2">
-        <v>221092620027</v>
+      <c r="A235" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" s="5">
         <v>8</v>
@@ -6055,14 +6145,14 @@
       </c>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="A236" s="2">
-        <v>221092620025</v>
+      <c r="A236" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" s="5">
         <v>8</v>
@@ -6078,14 +6168,14 @@
       </c>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="A237" s="2">
-        <v>221092620022</v>
+      <c r="A237" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" s="5">
         <v>8</v>
@@ -6101,14 +6191,14 @@
       </c>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="A238" s="2">
-        <v>221092620035</v>
+      <c r="A238" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" s="5">
         <v>8</v>
@@ -6124,14 +6214,14 @@
       </c>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="A239" s="2">
-        <v>221092620026</v>
+      <c r="A239" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" s="5">
         <v>8</v>
@@ -6147,14 +6237,14 @@
       </c>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="A240" s="2">
-        <v>221092620037</v>
+      <c r="A240" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" s="5">
         <v>8</v>
@@ -6170,14 +6260,14 @@
       </c>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="A241" s="2">
-        <v>221092620036</v>
+      <c r="A241" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" s="5">
         <v>8</v>
@@ -6193,14 +6283,14 @@
       </c>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="A242" s="2">
-        <v>221092620033</v>
+      <c r="A242" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" s="5">
         <v>8</v>
@@ -6216,14 +6306,14 @@
       </c>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="A243" s="2">
-        <v>211092620024</v>
+      <c r="A243" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" s="5">
         <v>8</v>
@@ -6239,14 +6329,14 @@
       </c>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="A244" s="2">
-        <v>221092620018</v>
+      <c r="A244" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" s="5">
         <v>8</v>
@@ -6262,14 +6352,14 @@
       </c>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="A245" s="2">
-        <v>221092620014</v>
+      <c r="A245" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D245" s="5">
         <v>8</v>
@@ -6285,14 +6375,14 @@
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="A246" s="2">
-        <v>221092620007</v>
+      <c r="A246" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D246" s="5">
         <v>8</v>
@@ -6308,14 +6398,14 @@
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="A247" s="2">
-        <v>221092620015</v>
+      <c r="A247" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D247" s="5">
         <v>8</v>
@@ -6331,14 +6421,14 @@
       </c>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="A248" s="2">
-        <v>221092620016</v>
+      <c r="A248" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D248" s="5">
         <v>8</v>
@@ -6354,14 +6444,14 @@
       </c>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="A249" s="2">
-        <v>221092620011</v>
+      <c r="A249" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D249" s="5">
         <v>8</v>
@@ -6377,14 +6467,14 @@
       </c>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="A250" s="2">
-        <v>221092620017</v>
+      <c r="A250" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D250" s="5">
         <v>8</v>
@@ -6400,14 +6490,14 @@
       </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="A251" s="2">
-        <v>221092620019</v>
+      <c r="A251" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D251" s="5">
         <v>8</v>
@@ -6423,14 +6513,14 @@
       </c>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="A252" s="2">
-        <v>221092620005</v>
+      <c r="A252" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D252" s="5">
         <v>8</v>
@@ -6446,14 +6536,14 @@
       </c>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="A253" s="2">
-        <v>221092620012</v>
+      <c r="A253" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D253" s="5">
         <v>8</v>
@@ -6469,14 +6559,14 @@
       </c>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="A254" s="2">
-        <v>221092620006</v>
+      <c r="A254" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D254" s="5">
         <v>8</v>
@@ -6492,14 +6582,14 @@
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="A255" s="2">
-        <v>221092620010</v>
+      <c r="A255" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D255" s="5">
         <v>8</v>
@@ -6515,14 +6605,14 @@
       </c>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="A256" s="2">
-        <v>221092620001</v>
+      <c r="A256" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D256" s="5">
         <v>8</v>
@@ -6538,14 +6628,14 @@
       </c>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="A257" s="2">
-        <v>221092620043</v>
+      <c r="A257" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D257" s="5">
         <v>8</v>
@@ -6561,14 +6651,14 @@
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="A258" s="2">
-        <v>221092620021</v>
+      <c r="A258" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D258" s="5">
         <v>8</v>
@@ -6584,14 +6674,14 @@
       </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="A259" s="2">
-        <v>221092620032</v>
+      <c r="A259" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259" s="5">
         <v>8</v>
@@ -6607,14 +6697,14 @@
       </c>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="A260" s="2">
-        <v>221092620008</v>
+      <c r="A260" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D260" s="5">
         <v>8</v>
@@ -6630,14 +6720,14 @@
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="A261" s="2">
-        <v>221092620003</v>
+      <c r="A261" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D261" s="5">
         <v>8</v>
@@ -6653,14 +6743,14 @@
       </c>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="A262" s="2">
-        <v>221092620013</v>
+      <c r="A262" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D262" s="5">
         <v>8</v>
@@ -6676,14 +6766,14 @@
       </c>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="A263" s="2">
-        <v>221092620040</v>
+      <c r="A263" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D263" s="5">
         <v>8</v>
@@ -6699,14 +6789,14 @@
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="A264" s="2">
-        <v>221092620002</v>
+      <c r="A264" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D264" s="5">
         <v>8</v>
@@ -6722,7 +6812,7 @@
       </c>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="A265" s="8"/>
+      <c r="A265" s="7"/>
       <c r="B265" s="6"/>
       <c r="C265" s="4"/>
       <c r="D265" s="5"/>
@@ -6731,14 +6821,14 @@
       <c r="G265" s="5"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="A266" s="2">
-        <v>221092620034</v>
+      <c r="A266" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D266" s="5">
         <v>9</v>
@@ -6754,14 +6844,14 @@
       </c>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="A267" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>9</v>
+      <c r="A267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D267" s="5">
         <v>9</v>
@@ -6777,14 +6867,14 @@
       </c>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="A268" s="2">
-        <v>221092620027</v>
+      <c r="A268" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D268" s="5">
         <v>9</v>
@@ -6800,14 +6890,14 @@
       </c>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="A269" s="2">
-        <v>221092620025</v>
+      <c r="A269" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D269" s="5">
         <v>9</v>
@@ -6823,14 +6913,14 @@
       </c>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="A270" s="2">
-        <v>221092620022</v>
+      <c r="A270" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D270" s="5">
         <v>9</v>
@@ -6846,14 +6936,14 @@
       </c>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="A271" s="2">
-        <v>221092620035</v>
+      <c r="A271" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D271" s="5">
         <v>9</v>
@@ -6869,14 +6959,14 @@
       </c>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="A272" s="2">
-        <v>221092620026</v>
+      <c r="A272" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D272" s="5">
         <v>9</v>
@@ -6892,14 +6982,14 @@
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="A273" s="2">
-        <v>221092620037</v>
+      <c r="A273" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D273" s="5">
         <v>9</v>
@@ -6915,14 +7005,14 @@
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="A274" s="2">
-        <v>221092620036</v>
+      <c r="A274" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D274" s="5">
         <v>9</v>
@@ -6938,14 +7028,14 @@
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="A275" s="2">
-        <v>221092620033</v>
+      <c r="A275" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D275" s="5">
         <v>9</v>
@@ -6961,14 +7051,14 @@
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="A276" s="2">
-        <v>211092620024</v>
+      <c r="A276" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D276" s="5">
         <v>9</v>
@@ -6984,14 +7074,14 @@
       </c>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="A277" s="2">
-        <v>221092620018</v>
+      <c r="A277" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D277" s="5">
         <v>9</v>
@@ -7007,14 +7097,14 @@
       </c>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="A278" s="2">
-        <v>221092620014</v>
+      <c r="A278" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D278" s="5">
         <v>9</v>
@@ -7030,14 +7120,14 @@
       </c>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="A279" s="2">
-        <v>221092620007</v>
+      <c r="A279" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D279" s="5">
         <v>9</v>
@@ -7053,14 +7143,14 @@
       </c>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="A280" s="2">
-        <v>221092620015</v>
+      <c r="A280" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D280" s="5">
         <v>9</v>
@@ -7076,14 +7166,14 @@
       </c>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="A281" s="2">
-        <v>221092620016</v>
+      <c r="A281" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D281" s="5">
         <v>9</v>
@@ -7099,14 +7189,14 @@
       </c>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="A282" s="2">
-        <v>221092620011</v>
+      <c r="A282" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D282" s="5">
         <v>9</v>
@@ -7122,14 +7212,14 @@
       </c>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="A283" s="2">
-        <v>221092620017</v>
+      <c r="A283" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D283" s="5">
         <v>9</v>
@@ -7145,14 +7235,14 @@
       </c>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="A284" s="2">
-        <v>221092620019</v>
+      <c r="A284" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D284" s="5">
         <v>9</v>
@@ -7168,14 +7258,14 @@
       </c>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="A285" s="2">
-        <v>221092620005</v>
+      <c r="A285" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D285" s="5">
         <v>9</v>
@@ -7191,14 +7281,14 @@
       </c>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="A286" s="2">
-        <v>221092620012</v>
+      <c r="A286" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D286" s="5">
         <v>9</v>
@@ -7214,14 +7304,14 @@
       </c>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="A287" s="2">
-        <v>221092620006</v>
+      <c r="A287" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D287" s="5">
         <v>9</v>
@@ -7237,14 +7327,14 @@
       </c>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="A288" s="2">
-        <v>221092620010</v>
+      <c r="A288" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D288" s="5">
         <v>9</v>
@@ -7260,14 +7350,14 @@
       </c>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="A289" s="2">
-        <v>221092620001</v>
+      <c r="A289" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D289" s="5">
         <v>9</v>
@@ -7283,14 +7373,14 @@
       </c>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="A290" s="2">
-        <v>221092620043</v>
+      <c r="A290" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D290" s="5">
         <v>9</v>
@@ -7306,14 +7396,14 @@
       </c>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="A291" s="2">
-        <v>221092620021</v>
+      <c r="A291" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D291" s="5">
         <v>9</v>
@@ -7329,14 +7419,14 @@
       </c>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="A292" s="2">
-        <v>221092620032</v>
+      <c r="A292" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D292" s="5">
         <v>9</v>
@@ -7352,14 +7442,14 @@
       </c>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="A293" s="2">
-        <v>221092620008</v>
+      <c r="A293" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D293" s="5">
         <v>9</v>
@@ -7375,14 +7465,14 @@
       </c>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="A294" s="2">
-        <v>221092620003</v>
+      <c r="A294" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D294" s="5">
         <v>9</v>
@@ -7398,14 +7488,14 @@
       </c>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="A295" s="2">
-        <v>221092620013</v>
+      <c r="A295" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D295" s="5">
         <v>9</v>
@@ -7421,14 +7511,14 @@
       </c>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="A296" s="2">
-        <v>221092620040</v>
+      <c r="A296" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D296" s="5">
         <v>9</v>
@@ -7444,14 +7534,14 @@
       </c>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="A297" s="2">
-        <v>221092620002</v>
+      <c r="A297" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D297" s="5">
         <v>9</v>
@@ -7467,7 +7557,7 @@
       </c>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="A298" s="8"/>
+      <c r="A298" s="7"/>
       <c r="B298" s="6"/>
       <c r="C298" s="4"/>
       <c r="D298" s="5"/>
@@ -7476,14 +7566,14 @@
       <c r="G298" s="5"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="A299" s="2">
-        <v>221092620034</v>
+      <c r="A299" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D299" s="5">
         <v>10</v>
@@ -7499,14 +7589,14 @@
       </c>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="A300" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>9</v>
+      <c r="A300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D300" s="5">
         <v>10</v>
@@ -7522,14 +7612,14 @@
       </c>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="A301" s="2">
-        <v>221092620027</v>
+      <c r="A301" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D301" s="5">
         <v>10</v>
@@ -7545,14 +7635,14 @@
       </c>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="A302" s="2">
-        <v>221092620025</v>
+      <c r="A302" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D302" s="5">
         <v>10</v>
@@ -7568,14 +7658,14 @@
       </c>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="A303" s="2">
-        <v>221092620022</v>
+      <c r="A303" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D303" s="5">
         <v>10</v>
@@ -7591,14 +7681,14 @@
       </c>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="A304" s="2">
-        <v>221092620035</v>
+      <c r="A304" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D304" s="5">
         <v>10</v>
@@ -7614,14 +7704,14 @@
       </c>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="A305" s="2">
-        <v>221092620026</v>
+      <c r="A305" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D305" s="5">
         <v>10</v>
@@ -7637,14 +7727,14 @@
       </c>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="A306" s="2">
-        <v>221092620037</v>
+      <c r="A306" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D306" s="5">
         <v>10</v>
@@ -7660,14 +7750,14 @@
       </c>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="A307" s="2">
-        <v>221092620036</v>
+      <c r="A307" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D307" s="5">
         <v>10</v>
@@ -7683,14 +7773,14 @@
       </c>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="A308" s="2">
-        <v>221092620033</v>
+      <c r="A308" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D308" s="5">
         <v>10</v>
@@ -7706,14 +7796,14 @@
       </c>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="A309" s="2">
-        <v>211092620024</v>
+      <c r="A309" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D309" s="5">
         <v>10</v>
@@ -7729,14 +7819,14 @@
       </c>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="A310" s="2">
-        <v>221092620018</v>
+      <c r="A310" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D310" s="5">
         <v>10</v>
@@ -7752,14 +7842,14 @@
       </c>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="A311" s="2">
-        <v>221092620014</v>
+      <c r="A311" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D311" s="5">
         <v>10</v>
@@ -7775,14 +7865,14 @@
       </c>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="A312" s="2">
-        <v>221092620007</v>
+      <c r="A312" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D312" s="5">
         <v>10</v>
@@ -7798,14 +7888,14 @@
       </c>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="A313" s="2">
-        <v>221092620015</v>
+      <c r="A313" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D313" s="5">
         <v>10</v>
@@ -7821,14 +7911,14 @@
       </c>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="A314" s="2">
-        <v>221092620016</v>
+      <c r="A314" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D314" s="5">
         <v>10</v>
@@ -7844,14 +7934,14 @@
       </c>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="A315" s="2">
-        <v>221092620011</v>
+      <c r="A315" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D315" s="5">
         <v>10</v>
@@ -7867,14 +7957,14 @@
       </c>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="A316" s="2">
-        <v>221092620017</v>
+      <c r="A316" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D316" s="5">
         <v>10</v>
@@ -7890,14 +7980,14 @@
       </c>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="A317" s="2">
-        <v>221092620019</v>
+      <c r="A317" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D317" s="5">
         <v>10</v>
@@ -7913,14 +8003,14 @@
       </c>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="A318" s="2">
-        <v>221092620005</v>
+      <c r="A318" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D318" s="5">
         <v>10</v>
@@ -7936,14 +8026,14 @@
       </c>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="A319" s="2">
-        <v>221092620012</v>
+      <c r="A319" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D319" s="5">
         <v>10</v>
@@ -7959,14 +8049,14 @@
       </c>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="A320" s="2">
-        <v>221092620006</v>
+      <c r="A320" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D320" s="5">
         <v>10</v>
@@ -7982,14 +8072,14 @@
       </c>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="A321" s="2">
-        <v>221092620010</v>
+      <c r="A321" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D321" s="5">
         <v>10</v>
@@ -8005,14 +8095,14 @@
       </c>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="A322" s="2">
-        <v>221092620001</v>
+      <c r="A322" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D322" s="5">
         <v>10</v>
@@ -8028,14 +8118,14 @@
       </c>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="A323" s="2">
-        <v>221092620043</v>
+      <c r="A323" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D323" s="5">
         <v>10</v>
@@ -8051,14 +8141,14 @@
       </c>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="A324" s="2">
-        <v>221092620021</v>
+      <c r="A324" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D324" s="5">
         <v>10</v>
@@ -8074,14 +8164,14 @@
       </c>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="A325" s="2">
-        <v>221092620032</v>
+      <c r="A325" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D325" s="5">
         <v>10</v>
@@ -8097,14 +8187,14 @@
       </c>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="A326" s="2">
-        <v>221092620008</v>
+      <c r="A326" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D326" s="5">
         <v>10</v>
@@ -8120,14 +8210,14 @@
       </c>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="A327" s="2">
-        <v>221092620003</v>
+      <c r="A327" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D327" s="5">
         <v>10</v>
@@ -8143,14 +8233,14 @@
       </c>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="A328" s="2">
-        <v>221092620013</v>
+      <c r="A328" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D328" s="5">
         <v>10</v>
@@ -8166,14 +8256,14 @@
       </c>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="A329" s="2">
-        <v>221092620040</v>
+      <c r="A329" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D329" s="5">
         <v>10</v>
@@ -8189,14 +8279,14 @@
       </c>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="A330" s="2">
-        <v>221092620002</v>
+      <c r="A330" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D330" s="5">
         <v>10</v>
@@ -8212,7 +8302,7 @@
       </c>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="A331" s="8"/>
+      <c r="A331" s="7"/>
       <c r="B331" s="6"/>
       <c r="C331" s="4"/>
       <c r="D331" s="5"/>
@@ -8221,14 +8311,14 @@
       <c r="G331" s="5"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="A332" s="2">
-        <v>221092620034</v>
+      <c r="A332" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D332" s="5">
         <v>11</v>
@@ -8244,14 +8334,14 @@
       </c>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="A333" s="2">
-        <v>221092620023</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>9</v>
+      <c r="A333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D333" s="5">
         <v>11</v>
@@ -8267,14 +8357,14 @@
       </c>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="A334" s="2">
-        <v>221092620027</v>
+      <c r="A334" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D334" s="5">
         <v>11</v>
@@ -8290,14 +8380,14 @@
       </c>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="A335" s="2">
-        <v>221092620025</v>
+      <c r="A335" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D335" s="5">
         <v>11</v>
@@ -8313,14 +8403,14 @@
       </c>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="A336" s="2">
-        <v>221092620022</v>
+      <c r="A336" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D336" s="5">
         <v>11</v>
@@ -8336,14 +8426,14 @@
       </c>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="A337" s="2">
-        <v>221092620035</v>
+      <c r="A337" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D337" s="5">
         <v>11</v>
@@ -8359,14 +8449,14 @@
       </c>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="A338" s="2">
-        <v>221092620026</v>
+      <c r="A338" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D338" s="5">
         <v>11</v>
@@ -8382,14 +8472,14 @@
       </c>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="A339" s="2">
-        <v>221092620037</v>
+      <c r="A339" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D339" s="5">
         <v>11</v>
@@ -8405,14 +8495,14 @@
       </c>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="A340" s="2">
-        <v>221092620036</v>
+      <c r="A340" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D340" s="5">
         <v>11</v>
@@ -8428,14 +8518,14 @@
       </c>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="A341" s="2">
-        <v>221092620033</v>
+      <c r="A341" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D341" s="5">
         <v>11</v>
@@ -8451,14 +8541,14 @@
       </c>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="A342" s="2">
-        <v>211092620024</v>
+      <c r="A342" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D342" s="5">
         <v>11</v>
@@ -8474,14 +8564,14 @@
       </c>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="A343" s="2">
-        <v>221092620018</v>
+      <c r="A343" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D343" s="5">
         <v>11</v>
@@ -8497,14 +8587,14 @@
       </c>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="A344" s="2">
-        <v>221092620014</v>
+      <c r="A344" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D344" s="5">
         <v>11</v>
@@ -8520,14 +8610,14 @@
       </c>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="A345" s="2">
-        <v>221092620007</v>
+      <c r="A345" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D345" s="5">
         <v>11</v>
@@ -8543,14 +8633,14 @@
       </c>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="A346" s="2">
-        <v>221092620015</v>
+      <c r="A346" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D346" s="5">
         <v>11</v>
@@ -8566,14 +8656,14 @@
       </c>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="A347" s="2">
-        <v>221092620016</v>
+      <c r="A347" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D347" s="5">
         <v>11</v>
@@ -8589,14 +8679,14 @@
       </c>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="A348" s="2">
-        <v>221092620011</v>
+      <c r="A348" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D348" s="5">
         <v>11</v>
@@ -8612,14 +8702,14 @@
       </c>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="A349" s="2">
-        <v>221092620017</v>
+      <c r="A349" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D349" s="5">
         <v>11</v>
@@ -8635,14 +8725,14 @@
       </c>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="A350" s="2">
-        <v>221092620019</v>
+      <c r="A350" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D350" s="5">
         <v>11</v>
@@ -8658,14 +8748,14 @@
       </c>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="A351" s="2">
-        <v>221092620005</v>
+      <c r="A351" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D351" s="5">
         <v>11</v>
@@ -8681,14 +8771,14 @@
       </c>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="A352" s="2">
-        <v>221092620012</v>
+      <c r="A352" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D352" s="5">
         <v>11</v>
@@ -8704,14 +8794,14 @@
       </c>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="A353" s="2">
-        <v>221092620006</v>
+      <c r="A353" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D353" s="5">
         <v>11</v>
@@ -8727,14 +8817,14 @@
       </c>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="A354" s="2">
-        <v>221092620010</v>
+      <c r="A354" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D354" s="5">
         <v>11</v>
@@ -8750,14 +8840,14 @@
       </c>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="A355" s="2">
-        <v>221092620001</v>
+      <c r="A355" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D355" s="5">
         <v>11</v>
@@ -8773,14 +8863,14 @@
       </c>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="A356" s="2">
-        <v>221092620043</v>
+      <c r="A356" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D356" s="5">
         <v>11</v>
@@ -8796,14 +8886,14 @@
       </c>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="A357" s="2">
-        <v>221092620021</v>
+      <c r="A357" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D357" s="5">
         <v>11</v>
@@ -8819,14 +8909,14 @@
       </c>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="A358" s="2">
-        <v>221092620032</v>
+      <c r="A358" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D358" s="5">
         <v>11</v>
@@ -8842,14 +8932,14 @@
       </c>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="A359" s="2">
-        <v>221092620008</v>
+      <c r="A359" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D359" s="5">
         <v>11</v>
@@ -8865,14 +8955,14 @@
       </c>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="A360" s="2">
-        <v>221092620003</v>
+      <c r="A360" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D360" s="5">
         <v>11</v>
@@ -8888,14 +8978,14 @@
       </c>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="A361" s="2">
-        <v>221092620013</v>
+      <c r="A361" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D361" s="5">
         <v>11</v>
@@ -8911,14 +9001,14 @@
       </c>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="A362" s="2">
-        <v>221092620040</v>
+      <c r="A362" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D362" s="5">
         <v>11</v>
@@ -8934,14 +9024,14 @@
       </c>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="A363" s="2">
-        <v>221092620002</v>
+      <c r="A363" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D363" s="5">
         <v>11</v>
@@ -8957,7 +9047,7 @@
       </c>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="A364" s="8"/>
+      <c r="A364" s="7"/>
       <c r="B364" s="6"/>
       <c r="C364" s="4"/>
       <c r="D364" s="5"/>
@@ -8966,14 +9056,14 @@
       <c r="G364" s="5"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="A365" s="2">
-        <v>221092620034</v>
+      <c r="A365" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D365" s="5">
         <v>12</v>
@@ -8989,14 +9079,14 @@
       </c>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="A366" s="9">
-        <v>221092620023</v>
-      </c>
-      <c r="B366" s="7" t="s">
-        <v>9</v>
+      <c r="A366" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D366" s="5">
         <v>12</v>
@@ -9012,14 +9102,14 @@
       </c>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="A367" s="9">
-        <v>221092620027</v>
+      <c r="A367" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D367" s="5">
         <v>12</v>
@@ -9035,14 +9125,14 @@
       </c>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="A368" s="9">
-        <v>221092620025</v>
+      <c r="A368" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D368" s="5">
         <v>12</v>
@@ -9058,14 +9148,14 @@
       </c>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="A369" s="9">
-        <v>221092620022</v>
+      <c r="A369" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D369" s="5">
         <v>12</v>
@@ -9081,14 +9171,14 @@
       </c>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="A370" s="9">
-        <v>221092620035</v>
+      <c r="A370" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D370" s="5">
         <v>12</v>
@@ -9104,14 +9194,14 @@
       </c>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="A371" s="9">
-        <v>221092620026</v>
+      <c r="A371" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D371" s="5">
         <v>12</v>
@@ -9127,14 +9217,14 @@
       </c>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="A372" s="9">
-        <v>221092620037</v>
+      <c r="A372" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D372" s="5">
         <v>12</v>
@@ -9150,14 +9240,14 @@
       </c>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="A373" s="9">
-        <v>221092620036</v>
+      <c r="A373" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D373" s="5">
         <v>12</v>
@@ -9173,14 +9263,14 @@
       </c>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="A374" s="9">
-        <v>221092620033</v>
+      <c r="A374" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D374" s="5">
         <v>12</v>
@@ -9196,14 +9286,14 @@
       </c>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="A375" s="9">
-        <v>211092620024</v>
+      <c r="A375" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D375" s="5">
         <v>12</v>
@@ -9219,14 +9309,14 @@
       </c>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="A376" s="9">
-        <v>221092620018</v>
+      <c r="A376" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D376" s="5">
         <v>12</v>
@@ -9242,14 +9332,14 @@
       </c>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="A377" s="9">
-        <v>221092620014</v>
+      <c r="A377" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D377" s="5">
         <v>12</v>
@@ -9265,14 +9355,14 @@
       </c>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="A378" s="9">
-        <v>221092620007</v>
+      <c r="A378" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D378" s="5">
         <v>12</v>
@@ -9288,14 +9378,14 @@
       </c>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="A379" s="9">
-        <v>221092620015</v>
+      <c r="A379" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D379" s="5">
         <v>12</v>
@@ -9311,14 +9401,14 @@
       </c>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="A380" s="9">
-        <v>221092620016</v>
+      <c r="A380" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D380" s="5">
         <v>12</v>
@@ -9334,14 +9424,14 @@
       </c>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="A381" s="9">
-        <v>221092620011</v>
+      <c r="A381" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D381" s="5">
         <v>12</v>
@@ -9357,14 +9447,14 @@
       </c>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="A382" s="9">
-        <v>221092620017</v>
+      <c r="A382" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D382" s="5">
         <v>12</v>
@@ -9380,14 +9470,14 @@
       </c>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="A383" s="9">
-        <v>221092620019</v>
+      <c r="A383" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D383" s="5">
         <v>12</v>
@@ -9403,14 +9493,14 @@
       </c>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="A384" s="9">
-        <v>221092620005</v>
+      <c r="A384" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D384" s="5">
         <v>12</v>
@@ -9426,14 +9516,14 @@
       </c>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="A385" s="9">
-        <v>221092620012</v>
+      <c r="A385" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D385" s="5">
         <v>12</v>
@@ -9449,14 +9539,14 @@
       </c>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="A386" s="9">
-        <v>221092620006</v>
+      <c r="A386" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D386" s="5">
         <v>12</v>
@@ -9472,14 +9562,14 @@
       </c>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="A387" s="9">
-        <v>221092620010</v>
+      <c r="A387" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D387" s="5">
         <v>12</v>
@@ -9495,14 +9585,14 @@
       </c>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="A388" s="9">
-        <v>221092620001</v>
+      <c r="A388" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D388" s="5">
         <v>12</v>
@@ -9518,14 +9608,14 @@
       </c>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="A389" s="9">
-        <v>221092620043</v>
+      <c r="A389" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D389" s="5">
         <v>12</v>
@@ -9541,14 +9631,14 @@
       </c>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="A390" s="9">
-        <v>221092620021</v>
+      <c r="A390" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D390" s="5">
         <v>12</v>
@@ -9564,14 +9654,14 @@
       </c>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="A391" s="9">
-        <v>221092620032</v>
+      <c r="A391" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D391" s="5">
         <v>12</v>
@@ -9587,14 +9677,14 @@
       </c>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="A392" s="9">
-        <v>221092620008</v>
+      <c r="A392" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D392" s="5">
         <v>12</v>
@@ -9610,14 +9700,14 @@
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="A393" s="9">
-        <v>221092620003</v>
+      <c r="A393" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D393" s="5">
         <v>12</v>
@@ -9633,14 +9723,14 @@
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="A394" s="9">
-        <v>221092620013</v>
+      <c r="A394" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D394" s="5">
         <v>12</v>
@@ -9656,14 +9746,14 @@
       </c>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="A395" s="9">
-        <v>221092620040</v>
+      <c r="A395" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D395" s="5">
         <v>12</v>
@@ -9679,14 +9769,14 @@
       </c>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="A396" s="9">
-        <v>221092620002</v>
+      <c r="A396" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D396" s="5">
         <v>12</v>
@@ -9702,7 +9792,7 @@
       </c>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="A397" s="8"/>
+      <c r="A397" s="7"/>
       <c r="B397" s="6"/>
       <c r="C397" s="4"/>
       <c r="D397" s="5"/>
@@ -9711,7 +9801,7 @@
       <c r="G397" s="5"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="A398" s="8"/>
+      <c r="A398" s="7"/>
       <c r="B398" s="6"/>
       <c r="C398" s="4"/>
       <c r="D398" s="5"/>
@@ -9720,7 +9810,7 @@
       <c r="G398" s="5"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="A399" s="8"/>
+      <c r="A399" s="7"/>
       <c r="B399" s="6"/>
       <c r="C399" s="4"/>
       <c r="D399" s="5"/>
@@ -9729,7 +9819,7 @@
       <c r="G399" s="5"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="A400" s="8"/>
+      <c r="A400" s="7"/>
       <c r="B400" s="6"/>
       <c r="C400" s="4"/>
       <c r="D400" s="5"/>
@@ -9738,8 +9828,8 @@
       <c r="G400" s="5"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="A401" s="8"/>
-      <c r="B401" s="10"/>
+      <c r="A401" s="7"/>
+      <c r="B401" s="8"/>
       <c r="C401" s="4"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -9747,7 +9837,7 @@
       <c r="G401" s="5"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="A402" s="8"/>
+      <c r="A402" s="7"/>
       <c r="B402" s="6"/>
       <c r="C402" s="4"/>
       <c r="D402" s="5"/>
@@ -9756,7 +9846,7 @@
       <c r="G402" s="5"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="A403" s="8"/>
+      <c r="A403" s="7"/>
       <c r="B403" s="6"/>
       <c r="C403" s="4"/>
       <c r="D403" s="5"/>
@@ -9765,7 +9855,7 @@
       <c r="G403" s="5"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="A404" s="8"/>
+      <c r="A404" s="7"/>
       <c r="B404" s="6"/>
       <c r="C404" s="4"/>
       <c r="D404" s="5"/>
@@ -9774,7 +9864,7 @@
       <c r="G404" s="5"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="A405" s="8"/>
+      <c r="A405" s="7"/>
       <c r="B405" s="6"/>
       <c r="C405" s="4"/>
       <c r="D405" s="5"/>
@@ -9783,7 +9873,7 @@
       <c r="G405" s="5"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="A406" s="8"/>
+      <c r="A406" s="7"/>
       <c r="B406" s="6"/>
       <c r="C406" s="4"/>
       <c r="D406" s="5"/>
@@ -9801,8 +9891,8 @@
       <c r="G407" s="5"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
+      <c r="A408" s="7"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="4"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -9810,7 +9900,7 @@
       <c r="G408" s="5"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="A409" s="8"/>
+      <c r="A409" s="7"/>
       <c r="B409" s="6"/>
       <c r="C409" s="4"/>
       <c r="D409" s="5"/>
@@ -9819,7 +9909,7 @@
       <c r="G409" s="5"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="A410" s="8"/>
+      <c r="A410" s="7"/>
       <c r="B410" s="6"/>
       <c r="C410" s="4"/>
       <c r="D410" s="5"/>
@@ -9828,7 +9918,7 @@
       <c r="G410" s="5"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="A411" s="8"/>
+      <c r="A411" s="7"/>
       <c r="B411" s="6"/>
       <c r="C411" s="4"/>
       <c r="D411" s="5"/>
@@ -9837,7 +9927,7 @@
       <c r="G411" s="5"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="A412" s="8"/>
+      <c r="A412" s="7"/>
       <c r="B412" s="6"/>
       <c r="C412" s="4"/>
       <c r="D412" s="5"/>
@@ -9846,7 +9936,7 @@
       <c r="G412" s="5"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="A413" s="8"/>
+      <c r="A413" s="7"/>
       <c r="B413" s="6"/>
       <c r="C413" s="4"/>
       <c r="D413" s="5"/>
@@ -9855,7 +9945,7 @@
       <c r="G413" s="5"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="A414" s="8"/>
+      <c r="A414" s="7"/>
       <c r="B414" s="6"/>
       <c r="C414" s="4"/>
       <c r="D414" s="5"/>
@@ -9864,7 +9954,7 @@
       <c r="G414" s="5"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="A415" s="8"/>
+      <c r="A415" s="7"/>
       <c r="B415" s="6"/>
       <c r="C415" s="4"/>
       <c r="D415" s="5"/>
@@ -9873,7 +9963,7 @@
       <c r="G415" s="5"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="A416" s="8"/>
+      <c r="A416" s="7"/>
       <c r="B416" s="6"/>
       <c r="C416" s="4"/>
       <c r="D416" s="5"/>
@@ -9882,7 +9972,7 @@
       <c r="G416" s="5"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="A417" s="8"/>
+      <c r="A417" s="7"/>
       <c r="B417" s="6"/>
       <c r="C417" s="4"/>
       <c r="D417" s="5"/>
@@ -9891,7 +9981,7 @@
       <c r="G417" s="5"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="A418" s="8"/>
+      <c r="A418" s="7"/>
       <c r="B418" s="6"/>
       <c r="C418" s="4"/>
       <c r="D418" s="5"/>
@@ -9900,7 +9990,7 @@
       <c r="G418" s="5"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="A419" s="8"/>
+      <c r="A419" s="7"/>
       <c r="B419" s="6"/>
       <c r="C419" s="4"/>
       <c r="D419" s="5"/>
@@ -9909,7 +9999,7 @@
       <c r="G419" s="5"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="A420" s="8"/>
+      <c r="A420" s="7"/>
       <c r="B420" s="6"/>
       <c r="C420" s="4"/>
       <c r="D420" s="5"/>
@@ -9918,7 +10008,7 @@
       <c r="G420" s="5"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="A421" s="8"/>
+      <c r="A421" s="7"/>
       <c r="B421" s="6"/>
       <c r="C421" s="4"/>
       <c r="D421" s="5"/>
@@ -9927,7 +10017,7 @@
       <c r="G421" s="5"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="A422" s="8"/>
+      <c r="A422" s="7"/>
       <c r="B422" s="6"/>
       <c r="C422" s="4"/>
       <c r="D422" s="5"/>
@@ -9936,8 +10026,8 @@
       <c r="G422" s="5"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="A423" s="8"/>
-      <c r="B423" s="10"/>
+      <c r="A423" s="7"/>
+      <c r="B423" s="8"/>
       <c r="C423" s="4"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -9945,8 +10035,8 @@
       <c r="G423" s="5"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="A424" s="8"/>
-      <c r="B424" s="10"/>
+      <c r="A424" s="7"/>
+      <c r="B424" s="8"/>
       <c r="C424" s="4"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -9954,7 +10044,7 @@
       <c r="G424" s="5"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="A425" s="8"/>
+      <c r="A425" s="7"/>
       <c r="B425" s="6"/>
       <c r="C425" s="4"/>
       <c r="D425" s="5"/>
@@ -9963,7 +10053,7 @@
       <c r="G425" s="5"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="A426" s="8"/>
+      <c r="A426" s="7"/>
       <c r="B426" s="6"/>
       <c r="C426" s="4"/>
       <c r="D426" s="5"/>
@@ -9972,7 +10062,7 @@
       <c r="G426" s="5"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="A427" s="8"/>
+      <c r="A427" s="7"/>
       <c r="B427" s="6"/>
       <c r="C427" s="4"/>
       <c r="D427" s="5"/>
@@ -9981,7 +10071,7 @@
       <c r="G427" s="5"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="A428" s="8"/>
+      <c r="A428" s="7"/>
       <c r="B428" s="6"/>
       <c r="C428" s="4"/>
       <c r="D428" s="5"/>
@@ -9990,7 +10080,7 @@
       <c r="G428" s="5"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="A429" s="8"/>
+      <c r="A429" s="7"/>
       <c r="B429" s="6"/>
       <c r="C429" s="4"/>
       <c r="D429" s="5"/>
@@ -9999,8 +10089,8 @@
       <c r="G429" s="5"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="A430" s="8"/>
-      <c r="B430" s="10"/>
+      <c r="A430" s="7"/>
+      <c r="B430" s="8"/>
       <c r="C430" s="4"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -10008,7 +10098,7 @@
       <c r="G430" s="5"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="A431" s="8"/>
+      <c r="A431" s="7"/>
       <c r="B431" s="6"/>
       <c r="C431" s="4"/>
       <c r="D431" s="5"/>
@@ -10017,7 +10107,7 @@
       <c r="G431" s="5"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="A432" s="8"/>
+      <c r="A432" s="7"/>
       <c r="B432" s="6"/>
       <c r="C432" s="4"/>
       <c r="D432" s="5"/>
@@ -10026,7 +10116,7 @@
       <c r="G432" s="5"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="A433" s="8"/>
+      <c r="A433" s="7"/>
       <c r="B433" s="6"/>
       <c r="C433" s="4"/>
       <c r="D433" s="5"/>
@@ -10035,7 +10125,7 @@
       <c r="G433" s="5"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="A434" s="8"/>
+      <c r="A434" s="7"/>
       <c r="B434" s="6"/>
       <c r="C434" s="4"/>
       <c r="D434" s="5"/>
@@ -10044,7 +10134,7 @@
       <c r="G434" s="5"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="A435" s="8"/>
+      <c r="A435" s="7"/>
       <c r="B435" s="6"/>
       <c r="C435" s="4"/>
       <c r="D435" s="5"/>
@@ -10062,8 +10152,8 @@
       <c r="G436" s="5"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="A437" s="8"/>
-      <c r="B437" s="8"/>
+      <c r="A437" s="7"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="4"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -10071,7 +10161,7 @@
       <c r="G437" s="5"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="A438" s="8"/>
+      <c r="A438" s="7"/>
       <c r="B438" s="6"/>
       <c r="C438" s="4"/>
       <c r="D438" s="5"/>
@@ -10080,7 +10170,7 @@
       <c r="G438" s="5"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="A439" s="8"/>
+      <c r="A439" s="7"/>
       <c r="B439" s="6"/>
       <c r="C439" s="4"/>
       <c r="D439" s="5"/>
@@ -10089,7 +10179,7 @@
       <c r="G439" s="5"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="A440" s="8"/>
+      <c r="A440" s="7"/>
       <c r="B440" s="6"/>
       <c r="C440" s="4"/>
       <c r="D440" s="5"/>
@@ -10098,7 +10188,7 @@
       <c r="G440" s="5"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="A441" s="8"/>
+      <c r="A441" s="7"/>
       <c r="B441" s="6"/>
       <c r="C441" s="4"/>
       <c r="D441" s="5"/>
@@ -10107,7 +10197,7 @@
       <c r="G441" s="5"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="A442" s="8"/>
+      <c r="A442" s="7"/>
       <c r="B442" s="6"/>
       <c r="C442" s="4"/>
       <c r="D442" s="5"/>
@@ -10116,7 +10206,7 @@
       <c r="G442" s="5"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="A443" s="8"/>
+      <c r="A443" s="7"/>
       <c r="B443" s="6"/>
       <c r="C443" s="4"/>
       <c r="D443" s="5"/>
@@ -10125,7 +10215,7 @@
       <c r="G443" s="5"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="A444" s="8"/>
+      <c r="A444" s="7"/>
       <c r="B444" s="6"/>
       <c r="C444" s="4"/>
       <c r="D444" s="5"/>
@@ -10134,7 +10224,7 @@
       <c r="G444" s="5"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="A445" s="8"/>
+      <c r="A445" s="7"/>
       <c r="B445" s="6"/>
       <c r="C445" s="4"/>
       <c r="D445" s="5"/>
@@ -10143,7 +10233,7 @@
       <c r="G445" s="5"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="A446" s="8"/>
+      <c r="A446" s="7"/>
       <c r="B446" s="6"/>
       <c r="C446" s="4"/>
       <c r="D446" s="5"/>
@@ -10152,7 +10242,7 @@
       <c r="G446" s="5"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="A447" s="8"/>
+      <c r="A447" s="7"/>
       <c r="B447" s="6"/>
       <c r="C447" s="4"/>
       <c r="D447" s="5"/>
@@ -10161,7 +10251,7 @@
       <c r="G447" s="5"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="A448" s="8"/>
+      <c r="A448" s="7"/>
       <c r="B448" s="6"/>
       <c r="C448" s="4"/>
       <c r="D448" s="5"/>
@@ -10170,7 +10260,7 @@
       <c r="G448" s="5"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="A449" s="8"/>
+      <c r="A449" s="7"/>
       <c r="B449" s="6"/>
       <c r="C449" s="4"/>
       <c r="D449" s="5"/>
@@ -10179,7 +10269,7 @@
       <c r="G449" s="5"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="A450" s="8"/>
+      <c r="A450" s="7"/>
       <c r="B450" s="6"/>
       <c r="C450" s="4"/>
       <c r="D450" s="5"/>
@@ -10188,7 +10278,7 @@
       <c r="G450" s="5"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="A451" s="8"/>
+      <c r="A451" s="7"/>
       <c r="B451" s="6"/>
       <c r="C451" s="4"/>
       <c r="D451" s="5"/>
@@ -10197,8 +10287,8 @@
       <c r="G451" s="5"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="A452" s="8"/>
-      <c r="B452" s="10"/>
+      <c r="A452" s="7"/>
+      <c r="B452" s="8"/>
       <c r="C452" s="4"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -10206,8 +10296,8 @@
       <c r="G452" s="5"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="A453" s="8"/>
-      <c r="B453" s="10"/>
+      <c r="A453" s="7"/>
+      <c r="B453" s="8"/>
       <c r="C453" s="4"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -10215,7 +10305,7 @@
       <c r="G453" s="5"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="A454" s="8"/>
+      <c r="A454" s="7"/>
       <c r="B454" s="6"/>
       <c r="C454" s="4"/>
       <c r="D454" s="5"/>
@@ -10224,7 +10314,7 @@
       <c r="G454" s="5"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="A455" s="8"/>
+      <c r="A455" s="7"/>
       <c r="B455" s="6"/>
       <c r="C455" s="4"/>
       <c r="D455" s="5"/>
@@ -10233,7 +10323,7 @@
       <c r="G455" s="5"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="A456" s="8"/>
+      <c r="A456" s="7"/>
       <c r="B456" s="6"/>
       <c r="C456" s="4"/>
       <c r="D456" s="5"/>
@@ -10242,7 +10332,7 @@
       <c r="G456" s="5"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="A457" s="8"/>
+      <c r="A457" s="7"/>
       <c r="B457" s="6"/>
       <c r="C457" s="4"/>
       <c r="D457" s="5"/>
@@ -10251,7 +10341,7 @@
       <c r="G457" s="5"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="A458" s="8"/>
+      <c r="A458" s="7"/>
       <c r="B458" s="6"/>
       <c r="C458" s="4"/>
       <c r="D458" s="5"/>
@@ -10260,8 +10350,8 @@
       <c r="G458" s="5"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="A459" s="8"/>
-      <c r="B459" s="10"/>
+      <c r="A459" s="7"/>
+      <c r="B459" s="8"/>
       <c r="C459" s="4"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -10269,7 +10359,7 @@
       <c r="G459" s="5"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="A460" s="8"/>
+      <c r="A460" s="7"/>
       <c r="B460" s="6"/>
       <c r="C460" s="4"/>
       <c r="D460" s="5"/>
@@ -10278,7 +10368,7 @@
       <c r="G460" s="5"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="A461" s="8"/>
+      <c r="A461" s="7"/>
       <c r="B461" s="6"/>
       <c r="C461" s="4"/>
       <c r="D461" s="5"/>
